--- a/Graaf Randwijk - Copy.xlsx
+++ b/Graaf Randwijk - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keizerkarelcollege-my.sharepoint.com/personal/8432_leerling_keizerkarelcollege_nl/Documents/PWS/Code-Pws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1224" documentId="8_{6559134B-F7D1-430F-8375-7154C1CD229A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BBFD0C3-996D-402C-9E22-7A20FD0BFEB5}"/>
+  <xr:revisionPtr revIDLastSave="1254" documentId="8_{6559134B-F7D1-430F-8375-7154C1CD229A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E9755E-6BBA-4ECD-B5EC-BA40D7122C89}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{E18A4365-C7BE-4D78-930A-0F39982C3C48}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10960" xr2:uid="{E18A4365-C7BE-4D78-930A-0F39982C3C48}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="6" r:id="rId1"/>
@@ -391,8 +391,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -451,9 +459,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,348 +799,351 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DF110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="84" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BH84" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BU110" sqref="BU110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" style="3" customWidth="1"/>
     <col min="2" max="121" width="5.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:110" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BI1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BK1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BL1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BM1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BN1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BO1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BP1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BR1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BS1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BT1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BU1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BV1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BW1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BX1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BY1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CA1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CB1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CC1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CD1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CE1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CF1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CG1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CH1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CI1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CK1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CL1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CM1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CN1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CO1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CP1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CR1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CS1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CT1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" s="3" t="s">
+      <c r="CU1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" s="3" t="s">
+      <c r="CV1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" s="3" t="s">
+      <c r="CW1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" s="3" t="s">
+      <c r="CX1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" s="3" t="s">
+      <c r="CY1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" s="3" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" s="3" t="s">
+      <c r="DA1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" s="3" t="s">
+      <c r="DB1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DC1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DD1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DE1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DF1" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:110" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1464,7 +1475,7 @@
       </c>
     </row>
     <row r="3" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" cm="1">
@@ -1797,7 +1808,7 @@
       </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" cm="1">
@@ -2131,7 +2142,7 @@
       </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" cm="1">
@@ -2466,7 +2477,7 @@
       </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" cm="1">
@@ -2802,7 +2813,7 @@
       </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" cm="1">
@@ -3139,7 +3150,7 @@
       </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" cm="1">
@@ -3477,7 +3488,7 @@
       </c>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" cm="1">
@@ -3816,7 +3827,7 @@
       </c>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" cm="1">
@@ -4156,7 +4167,7 @@
       </c>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" cm="1">
@@ -4497,7 +4508,7 @@
       </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" cm="1">
@@ -4839,7 +4850,7 @@
       </c>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" cm="1">
@@ -5182,7 +5193,7 @@
       </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" cm="1">
@@ -5526,7 +5537,7 @@
       </c>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" cm="1">
@@ -5871,7 +5882,7 @@
       </c>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" cm="1">
@@ -6217,7 +6228,7 @@
       </c>
     </row>
     <row r="17" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" cm="1">
@@ -6564,7 +6575,7 @@
       </c>
     </row>
     <row r="18" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" cm="1">
@@ -6912,7 +6923,7 @@
       </c>
     </row>
     <row r="19" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" cm="1">
@@ -6987,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -7261,7 +7272,7 @@
       </c>
     </row>
     <row r="20" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" cm="1">
@@ -7334,7 +7345,7 @@
       </c>
       <c r="S20" cm="1">
         <f t="array" ref="S20">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -7611,7 +7622,7 @@
       </c>
     </row>
     <row r="21" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" cm="1">
@@ -7962,7 +7973,7 @@
       </c>
     </row>
     <row r="22" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" cm="1">
@@ -8314,7 +8325,7 @@
       </c>
     </row>
     <row r="23" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" cm="1">
@@ -8408,7 +8419,7 @@
         <v>91</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -8667,7 +8678,7 @@
       </c>
     </row>
     <row r="24" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" cm="1">
@@ -9021,7 +9032,7 @@
       </c>
     </row>
     <row r="25" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" cm="1">
@@ -9110,7 +9121,7 @@
       </c>
       <c r="W25" cm="1">
         <f t="array" ref="W25">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="X25" cm="1">
         <f t="array" ref="X25">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
@@ -9376,7 +9387,7 @@
       </c>
     </row>
     <row r="26" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" cm="1">
@@ -9732,7 +9743,7 @@
       </c>
     </row>
     <row r="27" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" cm="1">
@@ -10089,7 +10100,7 @@
       </c>
     </row>
     <row r="28" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" cm="1">
@@ -10200,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -10447,7 +10458,7 @@
       </c>
     </row>
     <row r="29" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29" cm="1">
@@ -10556,7 +10567,7 @@
       </c>
       <c r="AB29" cm="1">
         <f t="array" ref="AB29">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -10806,7 +10817,7 @@
       </c>
     </row>
     <row r="30" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" cm="1">
@@ -10934,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -11166,7 +11177,7 @@
       </c>
     </row>
     <row r="31" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" cm="1">
@@ -11527,7 +11538,7 @@
       </c>
     </row>
     <row r="32" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32" cm="1">
@@ -11889,7 +11900,7 @@
       </c>
     </row>
     <row r="33" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" cm="1">
@@ -12252,7 +12263,7 @@
       </c>
     </row>
     <row r="34" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B34" cm="1">
@@ -12369,7 +12380,7 @@
       </c>
       <c r="AD34" cm="1">
         <f t="array" ref="AD34">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AE34" cm="1">
         <f t="array" ref="AE34">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
@@ -12417,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -12616,7 +12627,7 @@
       </c>
     </row>
     <row r="35" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B35" cm="1">
@@ -12981,7 +12992,7 @@
       </c>
     </row>
     <row r="36" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B36" cm="1">
@@ -13347,7 +13358,7 @@
       </c>
     </row>
     <row r="37" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37" cm="1">
@@ -13714,7 +13725,7 @@
       </c>
     </row>
     <row r="38" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B38" cm="1">
@@ -14082,7 +14093,7 @@
       </c>
     </row>
     <row r="39" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B39" cm="1">
@@ -14451,7 +14462,7 @@
       </c>
     </row>
     <row r="40" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B40" cm="1">
@@ -14821,7 +14832,7 @@
       </c>
     </row>
     <row r="41" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B41" cm="1">
@@ -14984,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -15192,7 +15203,7 @@
       </c>
     </row>
     <row r="42" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B42" cm="1">
@@ -15353,7 +15364,7 @@
       </c>
       <c r="AO42" cm="1">
         <f t="array" ref="AO42">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AP42">
         <v>0</v>
@@ -15564,7 +15575,7 @@
       </c>
     </row>
     <row r="43" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B43" cm="1">
@@ -15937,7 +15948,7 @@
       </c>
     </row>
     <row r="44" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B44" cm="1">
@@ -16311,7 +16322,7 @@
       </c>
     </row>
     <row r="45" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45" cm="1">
@@ -16444,7 +16455,7 @@
       </c>
       <c r="AH45" cm="1">
         <f t="array" ref="AH45">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AI45" cm="1">
         <f t="array" ref="AI45">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
@@ -16493,7 +16504,7 @@
         <v>70</v>
       </c>
       <c r="AU45">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AV45">
         <v>0</v>
@@ -16686,7 +16697,7 @@
       </c>
     </row>
     <row r="46" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B46" cm="1">
@@ -17062,7 +17073,7 @@
       </c>
     </row>
     <row r="47" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B47" cm="1">
@@ -17239,7 +17250,7 @@
       </c>
       <c r="AS47" cm="1">
         <f t="array" ref="AS47">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AT47" cm="1">
         <f t="array" ref="AT47">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
@@ -17408,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="CW47">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="CX47">
         <v>0</v>
@@ -17439,7 +17450,7 @@
       </c>
     </row>
     <row r="48" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B48" cm="1">
@@ -17817,7 +17828,7 @@
       </c>
     </row>
     <row r="49" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B49" cm="1">
@@ -18196,7 +18207,7 @@
       </c>
     </row>
     <row r="50" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B50" cm="1">
@@ -18576,7 +18587,7 @@
       </c>
     </row>
     <row r="51" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B51" cm="1">
@@ -18791,10 +18802,10 @@
         <v>0</v>
       </c>
       <c r="BD51">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="BE51">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BF51">
         <v>0</v>
@@ -18957,7 +18968,7 @@
       </c>
     </row>
     <row r="52" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B52" cm="1">
@@ -19339,7 +19350,7 @@
       </c>
     </row>
     <row r="53" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B53" cm="1">
@@ -19722,7 +19733,7 @@
       </c>
     </row>
     <row r="54" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B54" cm="1">
@@ -20106,7 +20117,7 @@
       </c>
     </row>
     <row r="55" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B55" cm="1">
@@ -20491,7 +20502,7 @@
       </c>
     </row>
     <row r="56" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B56" cm="1">
@@ -20692,7 +20703,7 @@
       </c>
       <c r="AY56" cm="1">
         <f t="array" ref="AY56">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AZ56" cm="1">
         <f t="array" ref="AZ56">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
@@ -20877,7 +20888,7 @@
       </c>
     </row>
     <row r="57" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B57" cm="1">
@@ -21078,7 +21089,7 @@
       </c>
       <c r="AY57" cm="1">
         <f t="array" ref="AY57">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AZ57" cm="1">
         <f t="array" ref="AZ57">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
@@ -21264,7 +21275,7 @@
       </c>
     </row>
     <row r="58" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B58" cm="1">
@@ -21652,7 +21663,7 @@
       </c>
     </row>
     <row r="59" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B59" cm="1">
@@ -22041,7 +22052,7 @@
       </c>
     </row>
     <row r="60" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B60" cm="1">
@@ -22431,7 +22442,7 @@
       </c>
     </row>
     <row r="61" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B61" cm="1">
@@ -22822,7 +22833,7 @@
       </c>
     </row>
     <row r="62" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B62" cm="1">
@@ -23214,7 +23225,7 @@
       </c>
     </row>
     <row r="63" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B63" cm="1">
@@ -23607,7 +23618,7 @@
       </c>
     </row>
     <row r="64" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B64" cm="1">
@@ -24001,7 +24012,7 @@
       </c>
     </row>
     <row r="65" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B65" cm="1">
@@ -24396,7 +24407,7 @@
       </c>
     </row>
     <row r="66" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B66" cm="1">
@@ -24792,7 +24803,7 @@
       </c>
     </row>
     <row r="67" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B67" cm="1">
@@ -25189,7 +25200,7 @@
       </c>
     </row>
     <row r="68" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B68" cm="1">
@@ -25587,7 +25598,7 @@
       </c>
     </row>
     <row r="69" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B69" cm="1">
@@ -25986,7 +25997,7 @@
       </c>
     </row>
     <row r="70" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B70" cm="1">
@@ -26386,7 +26397,7 @@
       </c>
     </row>
     <row r="71" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B71" cm="1">
@@ -26787,7 +26798,7 @@
       </c>
     </row>
     <row r="72" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B72" cm="1">
@@ -27189,7 +27200,7 @@
       </c>
     </row>
     <row r="73" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B73" cm="1">
@@ -27592,7 +27603,7 @@
       </c>
     </row>
     <row r="74" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B74" cm="1">
@@ -27996,7 +28007,7 @@
       </c>
     </row>
     <row r="75" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B75" cm="1">
@@ -28401,7 +28412,7 @@
       </c>
     </row>
     <row r="76" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B76" cm="1">
@@ -28807,7 +28818,7 @@
       </c>
     </row>
     <row r="77" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B77" cm="1">
@@ -29214,7 +29225,7 @@
       </c>
     </row>
     <row r="78" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B78" cm="1">
@@ -29622,7 +29633,7 @@
       </c>
     </row>
     <row r="79" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B79" cm="1">
@@ -30031,7 +30042,7 @@
       </c>
     </row>
     <row r="80" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B80" cm="1">
@@ -30441,7 +30452,7 @@
       </c>
     </row>
     <row r="81" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B81" cm="1">
@@ -30852,7 +30863,7 @@
       </c>
     </row>
     <row r="82" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B82" cm="1">
@@ -31264,7 +31275,7 @@
       </c>
     </row>
     <row r="83" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B83" cm="1">
@@ -31677,7 +31688,7 @@
       </c>
     </row>
     <row r="84" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B84" cm="1">
@@ -32091,7 +32102,7 @@
       </c>
     </row>
     <row r="85" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B85" cm="1">
@@ -32506,7 +32517,7 @@
       </c>
     </row>
     <row r="86" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B86" cm="1">
@@ -32922,7 +32933,7 @@
       </c>
     </row>
     <row r="87" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B87" cm="1">
@@ -33339,7 +33350,7 @@
       </c>
     </row>
     <row r="88" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B88" cm="1">
@@ -33757,7 +33768,7 @@
       </c>
     </row>
     <row r="89" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B89" cm="1">
@@ -34176,7 +34187,7 @@
       </c>
     </row>
     <row r="90" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B90" cm="1">
@@ -34596,7 +34607,7 @@
       </c>
     </row>
     <row r="91" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B91" cm="1">
@@ -35017,7 +35028,7 @@
       </c>
     </row>
     <row r="92" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B92" cm="1">
@@ -35387,7 +35398,7 @@
         <v>70</v>
       </c>
       <c r="CP92">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CQ92">
         <v>0</v>
@@ -35439,7 +35450,7 @@
       </c>
     </row>
     <row r="93" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B93" cm="1">
@@ -35862,7 +35873,7 @@
       </c>
     </row>
     <row r="94" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B94" cm="1">
@@ -36227,7 +36238,7 @@
       </c>
       <c r="CN94" cm="1">
         <f t="array" ref="CN94">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CO94" cm="1">
         <f t="array" ref="CO94">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
@@ -36286,7 +36297,7 @@
       </c>
     </row>
     <row r="95" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B95" cm="1">
@@ -36711,7 +36722,7 @@
       </c>
     </row>
     <row r="96" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B96" cm="1">
@@ -37137,7 +37148,7 @@
       </c>
     </row>
     <row r="97" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B97" cm="1">
@@ -37564,7 +37575,7 @@
       </c>
     </row>
     <row r="98" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B98" cm="1">
@@ -37992,7 +38003,7 @@
       </c>
     </row>
     <row r="99" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B99" cm="1">
@@ -38421,7 +38432,7 @@
       </c>
     </row>
     <row r="100" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B100" cm="1">
@@ -38851,7 +38862,7 @@
       </c>
     </row>
     <row r="101" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B101" cm="1">
@@ -39036,7 +39047,7 @@
       </c>
       <c r="AU101" cm="1">
         <f t="array" ref="AU101">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AV101" cm="1">
         <f t="array" ref="AV101">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
@@ -39269,7 +39280,7 @@
         <v>0</v>
       </c>
       <c r="DC101">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="DD101">
         <v>0</v>
@@ -39282,7 +39293,7 @@
       </c>
     </row>
     <row r="102" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B102" cm="1">
@@ -39714,7 +39725,7 @@
       </c>
     </row>
     <row r="103" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B103" cm="1">
@@ -40147,7 +40158,7 @@
       </c>
     </row>
     <row r="104" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B104" cm="1">
@@ -40581,7 +40592,7 @@
       </c>
     </row>
     <row r="105" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B105" cm="1">
@@ -41016,7 +41027,7 @@
       </c>
     </row>
     <row r="106" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B106" cm="1">
@@ -41452,7 +41463,7 @@
       </c>
     </row>
     <row r="107" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B107" cm="1">
@@ -41853,7 +41864,7 @@
       </c>
       <c r="CW107" cm="1">
         <f t="array" ref="CW107">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="CX107" cm="1">
         <f t="array" ref="CX107">INDEX($B$2:$DF$110, COLUMN()-1, ROW()-1)</f>
@@ -41889,7 +41900,7 @@
       </c>
     </row>
     <row r="108" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B108" cm="1">
@@ -42327,7 +42338,7 @@
       </c>
     </row>
     <row r="109" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B109" cm="1">
@@ -42766,7 +42777,7 @@
       </c>
     </row>
     <row r="110" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B110" cm="1">
